--- a/加拿大🇨🇦选校推荐.xlsx
+++ b/加拿大🇨🇦选校推荐.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaowenbo/前途出国留学资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A578EB3A-3C4D-554B-93B8-CFBB9C09F1B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB7D6BF-B2FB-4541-92AC-44297ED637FE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27740" windowHeight="17540" tabRatio="797" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27700" windowHeight="17540" tabRatio="797" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="1" r:id="rId1"/>
@@ -1568,7 +1568,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1756,6 +1756,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1771,12 +1777,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="15" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1785,6 +1785,12 @@
     </xf>
     <xf numFmtId="15" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2064,11 +2070,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -2158,13 +2164,13 @@
       <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="78" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="10"/>
@@ -2198,13 +2204,13 @@
       <c r="F5" s="7">
         <v>3</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="I5" s="9" t="s">
+      <c r="I5" s="78" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2212,13 +2218,13 @@
       <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="78" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="10"/>
@@ -2563,7 +2569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -3155,10 +3161,10 @@
       <c r="A11" s="20">
         <v>10</v>
       </c>
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="73" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="73">
+      <c r="C11" s="67">
         <v>43891</v>
       </c>
       <c r="D11" s="74">
@@ -3173,49 +3179,49 @@
       <c r="G11" s="76">
         <v>43798</v>
       </c>
-      <c r="H11" s="70">
+      <c r="H11" s="72">
         <v>44201</v>
       </c>
-      <c r="I11" s="70">
+      <c r="I11" s="72">
         <v>44270</v>
       </c>
-      <c r="J11" s="68">
+      <c r="J11" s="70">
         <v>44180</v>
       </c>
-      <c r="K11" s="72">
+      <c r="K11" s="68">
         <v>43845</v>
       </c>
-      <c r="L11" s="72">
+      <c r="L11" s="68">
         <v>43845</v>
       </c>
-      <c r="M11" s="68">
+      <c r="M11" s="70">
         <v>43920</v>
       </c>
-      <c r="N11" s="67" t="s">
+      <c r="N11" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="O11" s="69">
+      <c r="O11" s="71">
         <v>43876</v>
       </c>
-      <c r="P11" s="70" t="s">
+      <c r="P11" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="Q11" s="72">
+      <c r="Q11" s="68">
         <v>43861</v>
       </c>
-      <c r="R11" s="72">
+      <c r="R11" s="68">
         <v>43861</v>
       </c>
-      <c r="S11" s="73">
+      <c r="S11" s="67">
         <v>44228</v>
       </c>
-      <c r="T11" s="72">
+      <c r="T11" s="68">
         <v>43845</v>
       </c>
-      <c r="U11" s="72">
+      <c r="U11" s="68">
         <v>44180</v>
       </c>
-      <c r="V11" s="73">
+      <c r="V11" s="67">
         <v>44228</v>
       </c>
     </row>
@@ -3223,27 +3229,27 @@
       <c r="A12" s="20">
         <v>11</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="73"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="67"/>
       <c r="D12" s="74"/>
       <c r="E12" s="75"/>
       <c r="F12" s="75"/>
       <c r="G12" s="76"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="69"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="73"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="71"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="67"/>
     </row>
     <row r="13" spans="1:23" ht="18.75" customHeight="1">
       <c r="A13" s="20">
@@ -3447,12 +3453,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="S11:S12"/>
-    <mergeCell ref="T11:T12"/>
-    <mergeCell ref="U11:U12"/>
-    <mergeCell ref="V11:V12"/>
-    <mergeCell ref="Q11:Q12"/>
-    <mergeCell ref="R11:R12"/>
     <mergeCell ref="N11:N12"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="O11:O12"/>
@@ -3468,6 +3468,12 @@
     <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
     <mergeCell ref="H11:H12"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="T11:T12"/>
+    <mergeCell ref="U11:U12"/>
+    <mergeCell ref="V11:V12"/>
+    <mergeCell ref="Q11:Q12"/>
+    <mergeCell ref="R11:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
